--- a/Data set release 1/ds2/ds2_stats.xlsx
+++ b/Data set release 1/ds2/ds2_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\realn\OneDrive\Documents\git\soen472_mp2\Data set release 1\ds2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F209AC9-F287-441F-A524-3167BD25A996}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78803629-5E8D-4950-86D0-B5E6A4CC1BF6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" activeTab="1" xr2:uid="{E3F65C83-32B3-4C7A-966E-A0762FD703F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" firstSheet="1" activeTab="2" xr2:uid="{E3F65C83-32B3-4C7A-966E-A0762FD703F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Training" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Algorithm</t>
   </si>
@@ -162,6 +162,48 @@
   </si>
   <si>
     <t>Using same hyper-parameters as training</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Slightly different DT</t>
+  </si>
+  <si>
+    <t>Different DT, different metrics</t>
+  </si>
+  <si>
+    <t>Significantly different DT, slightly different metrics</t>
+  </si>
+  <si>
+    <t>Only applicable when reduced error pruning = true</t>
+  </si>
+  <si>
+    <t>Significantly different DT, worse metrics</t>
+  </si>
+  <si>
+    <t>Removes confidence factor</t>
+  </si>
+  <si>
+    <t>Lower CF = very slightly better metrics, shorter DT</t>
+  </si>
+  <si>
+    <t>After 4, metrics drop slowly but tree size drops rapidly</t>
+  </si>
+  <si>
+    <t>Shorter DT</t>
+  </si>
+  <si>
+    <t>Larger tree, slightly worse metrics</t>
+  </si>
+  <si>
+    <t>Same tree, same metrics, higher error rate</t>
   </si>
 </sst>
 </file>
@@ -690,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E241F916-2D09-489E-8D95-B541D8A8FAFC}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,13 +763,35 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="C2">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="E2">
+        <v>0.80300000000000005</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.78200000000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -780,172 +844,292 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCDAD8C-75AB-4CEE-AB9A-0DE9B2745C0F}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.453125" customWidth="1"/>
+    <col min="2" max="3" width="45.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
